--- a/artfynd/A 63852-2025 artfynd.xlsx
+++ b/artfynd/A 63852-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131082791</v>
+        <v>131082792</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>459785</v>
+        <v>459715</v>
       </c>
       <c r="R2" t="n">
-        <v>7046451</v>
+        <v>7046426</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131082792</v>
+        <v>131082791</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459715</v>
+        <v>459785</v>
       </c>
       <c r="R3" t="n">
-        <v>7046426</v>
+        <v>7046451</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082789</v>
+        <v>131082790</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459958</v>
+        <v>459913</v>
       </c>
       <c r="R5" t="n">
-        <v>7046508</v>
+        <v>7046493</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På en stående död gran.</t>
+          <t>På flera stående döda granar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131082790</v>
+        <v>131082789</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>459913</v>
+        <v>459958</v>
       </c>
       <c r="R6" t="n">
-        <v>7046493</v>
+        <v>7046508</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På flera stående döda granar.</t>
+          <t>På en stående död gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 63852-2025 artfynd.xlsx
+++ b/artfynd/A 63852-2025 artfynd.xlsx
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131082780</v>
+        <v>131082790</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,42 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459925</v>
+        <v>459913</v>
       </c>
       <c r="R4" t="n">
-        <v>7046501</v>
+        <v>7046493</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -967,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd på en gran vid en hyggeskant.</t>
+          <t>På flera stående döda granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -978,31 +970,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1019,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082790</v>
+        <v>131082789</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1054,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459913</v>
+        <v>459958</v>
       </c>
       <c r="R5" t="n">
-        <v>7046493</v>
+        <v>7046508</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1094,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På flera stående döda granar.</t>
+          <t>På en stående död gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1121,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131082789</v>
+        <v>131082782</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,34 +1099,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>459958</v>
+        <v>459863</v>
       </c>
       <c r="R6" t="n">
-        <v>7046508</v>
+        <v>7046470</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1196,7 +1171,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På en stående död gran.</t>
+          <t>Ringhack (savhack), äldre, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1207,6 +1182,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1223,7 +1223,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131082782</v>
+        <v>131082784</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>459863</v>
+        <v>459807</v>
       </c>
       <c r="R7" t="n">
-        <v>7046470</v>
+        <v>7046453</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre, på en gran vid en hyggeskant.</t>
+          <t>Ringhack (savhack), äldre, enstaka på en gran vid en hyggeskant. Mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131082784</v>
+        <v>131082781</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1391,7 +1391,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>459807</v>
+        <v>459874</v>
       </c>
       <c r="R8" t="n">
-        <v>7046453</v>
+        <v>7046477</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre, enstaka på en gran vid en hyggeskant. Mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
+          <t>Ringhack (savhack), färska, enstaka på en klen gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1493,7 +1493,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131082783</v>
+        <v>131082780</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>459823</v>
+        <v>459925</v>
       </c>
       <c r="R9" t="n">
-        <v>7046455</v>
+        <v>7046501</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, i riklig mängd på en gran vid en hyggeskant.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1628,7 +1628,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131082781</v>
+        <v>131082783</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>459874</v>
+        <v>459823</v>
       </c>
       <c r="R10" t="n">
-        <v>7046477</v>
+        <v>7046455</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, enstaka på en klen gran vid en hyggeskant.</t>
+          <t>Ringhack (savhack), färska och äldre, i riklig mängd på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 63852-2025 artfynd.xlsx
+++ b/artfynd/A 63852-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131082792</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>131082791</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131082790</v>
+        <v>131082789</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459913</v>
+        <v>459958</v>
       </c>
       <c r="R4" t="n">
-        <v>7046493</v>
+        <v>7046508</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På flera stående döda granar.</t>
+          <t>På en stående död gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082789</v>
+        <v>131082790</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459958</v>
+        <v>459913</v>
       </c>
       <c r="R5" t="n">
-        <v>7046508</v>
+        <v>7046493</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På en stående död gran.</t>
+          <t>På flera stående döda granar.</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 63852-2025 artfynd.xlsx
+++ b/artfynd/A 63852-2025 artfynd.xlsx
@@ -884,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131082789</v>
+        <v>131082790</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459958</v>
+        <v>459913</v>
       </c>
       <c r="R4" t="n">
-        <v>7046508</v>
+        <v>7046493</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På en stående död gran.</t>
+          <t>På flera stående döda granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -986,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082790</v>
+        <v>131082789</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459913</v>
+        <v>459958</v>
       </c>
       <c r="R5" t="n">
-        <v>7046493</v>
+        <v>7046508</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På flera stående döda granar.</t>
+          <t>På en stående död gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
